--- a/logs/Logs.xlsx
+++ b/logs/Logs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erlan\Documents\Lab\Graph subgraph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sclab\Documents\Lab\Subgraph and partitioning method\graph-ap\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA3DEBF-5CE1-4FD2-9147-DCE74B59A9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA5CF1-80A8-449D-9F8F-FE58E8B4E613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2BDFC8CA-ADA5-44E8-BB01-FF36EC6D4B04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{2BDFC8CA-ADA5-44E8-BB01-FF36EC6D4B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Fold" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment Fold" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,12 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="44">
   <si>
     <t>Base</t>
   </si>
@@ -152,12 +148,34 @@
   <si>
     <t>Fold 10/10</t>
   </si>
+  <si>
+    <t>Fold Acc</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t>With Subgraph
+(concat)</t>
+  </si>
+  <si>
+    <t>Base (GCN)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +199,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,14 +224,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5C66DA-43D9-447B-9EB7-5601E42E1AB5}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="266" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,17 +584,20 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -566,8 +622,12 @@
       <c r="H3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>H13</f>
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -592,8 +652,12 @@
       <c r="H4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>H25</f>
+        <v>0.6333359999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -618,8 +682,12 @@
       <c r="H5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>H38</f>
+        <v>0.6333359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -644,8 +712,12 @@
       <c r="H6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>H50</f>
+        <v>0.68666400000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -670,8 +742,12 @@
       <c r="H7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>H62</f>
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -696,8 +772,12 @@
       <c r="H8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>H74</f>
+        <v>0.79333600000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -722,8 +802,12 @@
       <c r="H9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>H86</f>
+        <v>0.52666400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -748,8 +832,12 @@
       <c r="H10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>H98</f>
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -774,8 +862,12 @@
       <c r="H11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>H110</f>
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -800,27 +892,37 @@
       <c r="H12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>H122</f>
+        <v>0.68666400000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13">
         <f>AVERAGE(H3:H12)</f>
         <v>0.57999999999999985</v>
       </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
       <c r="K13">
-        <f>AVERAGE(H13,H25,H38,H50,H62,H74,H86,H98,H110,H122)</f>
+        <f>AVERAGE(K3:K12)</f>
         <v>0.628</v>
       </c>
-      <c r="L13">
-        <f>_xlfn.STDEV.P(H13,H25,H38,H50,H62,H74,H86,H98,H110,H122)</f>
-        <v>7.3321793060453264E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <f>_xlfn.STDEV.P(K3:K12)</f>
+        <v>7.3321793060453264E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -846,7 +948,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3262,25 +3364,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8A0B2-D368-4C74-9B31-80C4B964A068}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3305,8 +3410,12 @@
       <c r="H3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>H13</f>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3331,8 +3440,12 @@
       <c r="H4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>H25</f>
+        <v>0.6333359999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3357,8 +3470,12 @@
       <c r="H5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>H37</f>
+        <v>0.6333359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3383,8 +3500,12 @@
       <c r="H6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>H49</f>
+        <v>0.68666400000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3409,8 +3530,12 @@
       <c r="H7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>H61</f>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3435,8 +3560,12 @@
       <c r="H8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>H73</f>
+        <v>0.79333600000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3461,8 +3590,12 @@
       <c r="H9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>H85</f>
+        <v>0.53333000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3487,8 +3620,12 @@
       <c r="H10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>H97</f>
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3513,8 +3650,12 @@
       <c r="H11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>H109</f>
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3539,27 +3680,37 @@
       <c r="H12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>H121</f>
+        <v>0.68666400000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13">
         <f>AVERAGE(H3:H12)</f>
         <v>0.59999999999999987</v>
       </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
       <c r="K13">
-        <f>AVERAGE(H13,H25,H37,H49,H61,H73,H85,H97,H109,H121)</f>
+        <f>AVERAGE(K3:K12)</f>
         <v>0.63266660000000008</v>
       </c>
-      <c r="L13">
-        <f>_xlfn.STDEV.P(H13,H25,H37,H49,H61,H73,H85,H97,H109,H121)</f>
-        <v>7.0140220861071675E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <f>_xlfn.STDEV.P(K3:K12)</f>
+        <v>7.0140220861071675E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -3585,7 +3736,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -5996,4 +6147,171 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9C9D3-2ECC-4B93-BCE1-A0567D2F61B9}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.6333359999999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.6333359999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.6333359999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.6333359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.68666400000000016</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.68666400000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.79333600000000004</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.79333600000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.52666400000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.53333000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.57999999999999985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.68666400000000016</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.68666400000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.628</v>
+      </c>
+      <c r="C13" s="7">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.63266660000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6">
+        <f>_xlfn.STDEV.P(B3:B12)</f>
+        <v>7.3321793060453264E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <f>_xlfn.STDEV.P(C3:C12)</f>
+        <v>7.0140220861071675E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/logs/Logs.xlsx
+++ b/logs/Logs.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sclab\Documents\Lab\Subgraph and partitioning method\graph-ap\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA5CF1-80A8-449D-9F8F-FE58E8B4E613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C069C5-9579-4580-AB25-7B95B58AB166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{2BDFC8CA-ADA5-44E8-BB01-FF36EC6D4B04}"/>
+    <workbookView xWindow="1515" yWindow="1545" windowWidth="21600" windowHeight="11505" activeTab="4" xr2:uid="{2BDFC8CA-ADA5-44E8-BB01-FF36EC6D4B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Fold" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment Fold" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="L2 - Base" sheetId="4" r:id="rId4"/>
+    <sheet name="L2 - Experiment" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="47">
   <si>
     <t>Base</t>
   </si>
@@ -167,6 +169,15 @@
   <si>
     <t>Base (GCN)</t>
   </si>
+  <si>
+    <t>Fold 0/10</t>
+  </si>
+  <si>
+    <t>test:</t>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
 </sst>
 </file>
 
@@ -243,10 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,6 +271,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6151,10 +6164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9C9D3-2ECC-4B93-BCE1-A0567D2F61B9}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6163,149 +6176,161 @@
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.57999999999999985</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>0.6333359999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>0.6333359999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.6333359999999999</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.6333359999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
         <v>0.68666400000000016</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>0.68666400000000016</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.57999999999999985</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>0.79333600000000004</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>0.79333600000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>0.52666400000000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>0.53333000000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>0.57999999999999985</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>0.57999999999999985</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>0.57999999999999985</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>0.57999999999999985</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>0.68666400000000016</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>0.68666400000000016</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <f>AVERAGE(B3:B12)</f>
         <v>0.628</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <f>AVERAGE(C3:C12)</f>
         <v>0.63266660000000008</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="3">
+        <f>B13*100</f>
+        <v>62.8</v>
+      </c>
+      <c r="E13" s="3">
+        <f>C13*100</f>
+        <v>63.266660000000009</v>
+      </c>
+      <c r="F13" s="3">
+        <f>E13-D13</f>
+        <v>0.46666000000001162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <f>_xlfn.STDEV.P(B3:B12)</f>
         <v>7.3321793060453264E-2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <f>_xlfn.STDEV.P(C3:C12)</f>
         <v>7.0140220861071675E-2</v>
       </c>
@@ -6314,4 +6339,5946 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF0886-C01E-4D1D-BEC8-D96C19CFBCB2}">
+  <dimension ref="A1:L119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>0.32</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(H2:H119)</f>
+        <v>0.62800000000000034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.70721000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.69816</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.69530999999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.69991000000000003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.69918999999999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.70086000000000004</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.70057000000000003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.69582999999999995</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.69881000000000004</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0.34073999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.97114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.86902000000000001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.80845</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.81286999999999998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.84467000000000003</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.85104999999999997</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.83857999999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0.34073999999999999</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0.68825000000000003</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.69423000000000001</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.70481000000000005</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.70682</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.70621</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.70189000000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0.69637000000000004</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.69350999999999996</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0.69328999999999996</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0.69343999999999995</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>0.34815000000000002</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>0.26667000000000002</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0.70291999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.69943</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0.69938999999999996</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0.68254999999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0.67005000000000003</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0.66268000000000005</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0.66376999999999997</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0.69416999999999995</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>0.4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>0.6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0.68574000000000002</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>0.6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>0.68962999999999997</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>0.6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0.68666000000000005</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>0.6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0.68927000000000005</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>0.6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0.68459000000000003</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>0.6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>0.6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.67054999999999998</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>0.6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>0.67417000000000005</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>0.6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>0.69835000000000003</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>0.36296</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>0.13333</v>
+      </c>
+      <c r="I62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0.78924000000000005</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I63" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J64">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>0.81379000000000001</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0.81694999999999995</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>0.80764999999999998</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>0.80040999999999995</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I68" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0.80481000000000003</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.79857999999999996</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I70" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0.78312999999999999</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="I71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>0.69218999999999997</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>0.32593</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>0.46666999999999997</v>
+      </c>
+      <c r="I74" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0.70611000000000002</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I75" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>0.73114999999999997</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I76" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>0.73482999999999998</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>0.74202999999999997</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I78" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>0.72731000000000001</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>0.72028000000000003</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>0.72460999999999998</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I81" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0.72836000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I82" t="s">
+        <v>45</v>
+      </c>
+      <c r="J82">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>0.72880999999999996</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>0.53332999999999997</v>
+      </c>
+      <c r="I83" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G86" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>0.4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>45</v>
+      </c>
+      <c r="J86">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>0.83059000000000005</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>0.6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>45</v>
+      </c>
+      <c r="J87">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G88" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>0.6</v>
+      </c>
+      <c r="I88" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>0.85679000000000005</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>0.6</v>
+      </c>
+      <c r="I89" t="s">
+        <v>45</v>
+      </c>
+      <c r="J89">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>0.86441999999999997</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>0.6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>0.86448999999999998</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>0.6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>0.6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>45</v>
+      </c>
+      <c r="J92">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0.85733000000000004</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>0.6</v>
+      </c>
+      <c r="I93" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>0.6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>0.86163999999999996</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G95" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>0.6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>0.69825999999999999</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>0.4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G99" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>0.6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0.86131000000000002</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>0.6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>0.85543000000000002</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G101" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <v>0.6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>0.86156999999999995</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G102" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>0.6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0.86023000000000005</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>0.6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>0.85992000000000002</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G104" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104">
+        <v>0.6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G105" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>0.6</v>
+      </c>
+      <c r="I105" t="s">
+        <v>45</v>
+      </c>
+      <c r="J105">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0.86311000000000004</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G106" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>0.6</v>
+      </c>
+      <c r="I106" t="s">
+        <v>45</v>
+      </c>
+      <c r="J106">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>0.86245000000000005</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <v>0.6</v>
+      </c>
+      <c r="I107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>0.69267000000000001</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>0.34815000000000002</v>
+      </c>
+      <c r="G110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>0.26667000000000002</v>
+      </c>
+      <c r="I110" t="s">
+        <v>45</v>
+      </c>
+      <c r="J110">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>0.69137000000000004</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G111" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I111" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>0.70413000000000003</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G112" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I112" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>0.70464000000000004</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G113" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I113" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>0.70962999999999998</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I114" t="s">
+        <v>45</v>
+      </c>
+      <c r="J114">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>0.71042000000000005</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I115" t="s">
+        <v>45</v>
+      </c>
+      <c r="J115">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>0.71314999999999995</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I116" t="s">
+        <v>45</v>
+      </c>
+      <c r="J116">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>0.71216999999999997</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I117" t="s">
+        <v>45</v>
+      </c>
+      <c r="J117">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0.70621</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I118" t="s">
+        <v>45</v>
+      </c>
+      <c r="J118">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>0.70501000000000003</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G119" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="I119" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143A4A03-6183-4EFF-B6D6-F32B19A82672}">
+  <dimension ref="A1:K119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.70021</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(H2:H119)</f>
+        <v>0.63466650000000024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.67693000000000003</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.70587</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.69596999999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.69772999999999996</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.69886999999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.71265999999999996</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.70837000000000006</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.70384000000000002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.69649000000000005</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.70443999999999996</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0.34073999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.77151999999999998</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.80789</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.81664999999999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.82752999999999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.82738999999999996</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.82977999999999996</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.82635999999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.83126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0.83279000000000003</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0.69167000000000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0.31111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0.68864999999999998</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.70179000000000002</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.69742000000000004</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0.71221999999999996</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.71311000000000002</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0.70401000000000002</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.71072000000000002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0.68444000000000005</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>0.65925999999999996</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0.69188000000000005</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>0.67364000000000002</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.67717000000000005</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0.67467999999999995</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0.68072999999999995</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0.68779000000000001</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0.68322000000000005</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0.67227999999999999</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0.65310999999999997</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0.65256999999999998</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0.69091999999999998</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0.67954999999999999</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0.70133999999999996</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>0.69713000000000003</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0.71031999999999995</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0.71731999999999996</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>0.71692999999999996</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>0.71423999999999999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.71553</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>0.71643000000000001</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>0.68777999999999995</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>0.36296</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62">
+        <v>0.13333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0.73441999999999996</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.74451999999999996</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>0.74463000000000001</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0.75078</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>0.64444000000000001</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>0.79449000000000003</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.82247000000000003</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0.78151999999999999</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>0.63704000000000005</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>0.58518999999999999</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0.68742999999999999</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>0.68935999999999997</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>0.70064000000000004</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>0.70243</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>0.72174000000000005</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>0.72879000000000005</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0.71164000000000005</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>0.71201999999999999</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>0.67406999999999995</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>0.69933999999999996</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0.79969000000000001</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>0.81659000000000004</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>0.83428000000000002</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>0.84657000000000004</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>0.85102</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0.85236999999999996</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0.85245000000000004</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>0.85209000000000001</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>0.70052000000000003</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>0.81713000000000002</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0.80203000000000002</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>0.80862999999999996</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>0.82062000000000002</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0.83714999999999995</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>0.84699000000000002</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>0.84950999999999999</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0.85038000000000002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>0.84987000000000001</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>0.34815000000000002</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110">
+        <v>0.26667000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>0.68857999999999997</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>0.69135999999999997</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>0.70345000000000002</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>0.71413000000000004</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>0.70637000000000005</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>0.69647000000000003</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>0.71382000000000001</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0.69860999999999995</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>0.70177999999999996</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>0.65185000000000004</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>